--- a/misc/mål/S Python Mål.xlsx
+++ b/misc/mål/S Python Mål.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\misc\mål\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{ED3FA48E-8C21-4CC4-B2EB-8B01F46FF3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{74A7FD91-EDB7-4A6A-9074-D2B3B6A06791}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{ED3FA48E-8C21-4CC4-B2EB-8B01F46FF3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DC4F995A-9EC0-4CAD-8AC1-FD70A66C4437}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{09637C2E-6989-4846-BFDD-9ACD82CB96F4}"/>
   </bookViews>
@@ -58,54 +58,54 @@
     <t>Softwarekonstruktion 2 – Application Programming</t>
   </si>
   <si>
+    <t>Eleven kan implementere simple brugergrænseflader vha. udviklingsmiljøets funktioner hertil.</t>
+  </si>
+  <si>
+    <t>Eleven er i stand til at indgå og arbejde i udvalgte elementer af en eller flere udvalgte systemudviklingsmetoder.</t>
+  </si>
+  <si>
+    <t>Eleven kan anvende og konsumere webservices i et udvalgt format.</t>
+  </si>
+  <si>
+    <t>Eleven er fortrolig med væsentlige elementer af objektorienteret programmering.</t>
+  </si>
+  <si>
+    <t>Eleven kan ud fra en given kravspecifikation konstruere en applikation.</t>
+  </si>
+  <si>
+    <t>Eleven er i stand til at implementere persistente datamodeller.</t>
+  </si>
+  <si>
+    <t>Eleven kan kvalitetssikre en applikations robusthed ved anvendelse af relevant fejlhåndtering.</t>
+  </si>
+  <si>
+    <t>Eleven kan kvalitetssikre sine løsninger ved overholdelse af kravspecifikation, udvikling af simple automatiserede test, samt overholde best practice i det valgte programmeringssprog.</t>
+  </si>
+  <si>
+    <t>Eleven ved, hvad klasser, instanser, metoder og attributter er.
+Eleven kan anvende indkapsling.
+Eleven kan anvende nedarvning.
+Eleven kan anvende polymorfi.</t>
+  </si>
+  <si>
+    <t>Eleven kan bruge biblioteket sqlalchemy for at oprette en SQL-database med tabeller.
+Eleven ved, hvad en primærnøgle og en fremmednøgle er.
+Eleven kan foretage CRUD med SQL via sqlalchemy.</t>
+  </si>
+  <si>
+    <t>Eleven kan sikre robusthed ved håndtering af exceptions.
+Eleven kan programmere en try-except block.</t>
+  </si>
+  <si>
+    <t>Eleven kan lave unit tests efter AAA-metoden.*
+Eleven kan overholde best practice ift. kode formatering og navngivning.</t>
+  </si>
+  <si>
     <t>Eleven kan anvende git til versionsstyring.
 Eleven kan anvende github til styring af projekter.
 Eleven kan omsætte en kravspecifikation til funktionalitet.
 Eleven kan anvende waterfall methodologien.
-Eleven kan konstruere en modulariseret softwarearkitektur.</t>
-  </si>
-  <si>
-    <t>Eleven kan implementere simple brugergrænseflader vha. udviklingsmiljøets funktioner hertil.</t>
-  </si>
-  <si>
-    <t>Eleven er i stand til at indgå og arbejde i udvalgte elementer af en eller flere udvalgte systemudviklingsmetoder.</t>
-  </si>
-  <si>
-    <t>Eleven kan anvende og konsumere webservices i et udvalgt format.</t>
-  </si>
-  <si>
-    <t>Eleven er fortrolig med væsentlige elementer af objektorienteret programmering.</t>
-  </si>
-  <si>
-    <t>Eleven kan ud fra en given kravspecifikation konstruere en applikation.</t>
-  </si>
-  <si>
-    <t>Eleven er i stand til at implementere persistente datamodeller.</t>
-  </si>
-  <si>
-    <t>Eleven kan kvalitetssikre en applikations robusthed ved anvendelse af relevant fejlhåndtering.</t>
-  </si>
-  <si>
-    <t>Eleven kan kvalitetssikre sine løsninger ved overholdelse af kravspecifikation, udvikling af simple automatiserede test, samt overholde best practice i det valgte programmeringssprog.</t>
-  </si>
-  <si>
-    <t>Eleven ved, hvad klasser, instanser, metoder og attributter er.
-Eleven kan anvende indkapsling.
-Eleven kan anvende nedarvning.
-Eleven kan anvende polymorfi.</t>
-  </si>
-  <si>
-    <t>Eleven kan bruge biblioteket sqlalchemy for at oprette en SQL-database med tabeller.
-Eleven ved, hvad en primærnøgle og en fremmednøgle er.
-Eleven kan foretage CRUD med SQL via sqlalchemy.</t>
-  </si>
-  <si>
-    <t>Eleven kan sikre robusthed ved håndtering af exceptions.
-Eleven kan programmere en try-except block.</t>
-  </si>
-  <si>
-    <t>Eleven kan lave unit tests efter AAA-metoden.*
-Eleven kan overholde best practice ift. kode formatering og navngivning.</t>
+Eleven kan konstruere en modulariseret softwarearkitektur (lagdeling).</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="2:3" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -555,15 +555,15 @@
     </row>
     <row r="5" spans="2:3" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -571,15 +571,15 @@
     </row>
     <row r="7" spans="2:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -587,26 +587,26 @@
     </row>
     <row r="9" spans="2:3" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
